--- a/BOM & CPL/Order-1 by ByteBots.xlsx
+++ b/BOM & CPL/Order-1 by ByteBots.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tawhid\Desktop\LFR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tawhid\Documents\Github Portfolio\LFR\ByteBot_LFR_V1.0\BOM &amp; CPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7EFE5CF2-DC5E-4E9E-B4CC-CF672624558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46078057-A038-4902-8D77-A055C9B0DA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="624" yWindow="2724" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order-1 by ByteBots" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -109,17 +120,23 @@
     <t>motor</t>
   </si>
   <si>
-    <t>1:15 2100rpm HPCB</t>
-  </si>
-  <si>
     <t>total=</t>
+  </si>
+  <si>
+    <t>Pololu - 10:1 Micro Metal Gearmotor HPCB 6V</t>
+  </si>
+  <si>
+    <t>1:10 3300rpm HPCB</t>
+  </si>
+  <si>
+    <t>Ship to bd direct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +275,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,9 +637,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,11 +1010,12 @@
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.77734375" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="63.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,10 +1032,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1016,68 +1054,74 @@
       <c r="E2">
         <v>56</v>
       </c>
+      <c r="F2">
+        <v>27.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1094,11 +1138,14 @@
         <f>4.95*2</f>
         <v>9.9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>24.45</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1114,11 +1161,11 @@
       <c r="E7">
         <v>12.42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1135,11 +1182,11 @@
         <f>2.95*2</f>
         <v>5.9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1156,26 +1203,30 @@
         <f>22.45*2</f>
         <v>44.9</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <f>SUM(E2:E9)</f>
-        <v>167.12</v>
+        <f>SUM(E2,(E6:E9),(F2:F9))</f>
+        <v>181.17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://www.amazon.com/dp/B0C2Z1WNRV?ref=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;ref_=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;social_share=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;starsLeft=1&amp;th=1"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.amazon.com/Spektrum-7-4V-300mAh-LiPo-Battery/dp/B0BMFCN7LD/ref=sr_1_55?dib=eyJ2IjoiMSJ9.wzwfGOav2nVI91ccZl7OYcXuXj5Smi1pyHvz8MnEKTZ9i3wTqEBs8eILT9nwq6ENXuUFfiHC3NR4GzKrWZKNDn2YFT1GOJngdxAhUQVP36ZmWMpASlHSShcEF6om4UYc1A77I5Od4scneMemwc5Q7piO5o904nBnSYPnXp5sllmK90l0Z8qhOSYBcrC36MMKfBvg6xPjo1SzN9_ayTyPKAF-JF8dw3SUcm5AlP098XJCQ6lXvSg-kTyhctbc_YtUyZY4NIhVBm0UHuzP0qV-9KIycp-2UfiQ2qPuzQBWwjYV7ewJW2cHAmD6OjKNtzKrRkvC3EkMomIcEg-z-RU6eF-CKgT1zauTDpi5jNGeb0pEI9UUOUbPUmCmcVStcna8lhLiO7oIKxOVe81o1gWduYlHCpAaxtXdjNHLbujBXSE0IcuG8fXP-dL8K9zxNabL.2IexPEltABSEhd3UQSkn-n87hF9K3wfqKcLG_K9WDeA&amp;dib_tag=se&amp;keywords=2s+battery&amp;qid=1740303914&amp;sr=8-55"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://www.amazon.com/dp/B09KM213N7/ref=twister_B09KM3HWH6?_encoding=UTF8&amp;th=1"/>
-    <hyperlink ref="F7" r:id="rId4" location=":~:text=This%20array%20of%20IR%20LED%2Fphototransistor%20pairs%20is%20great,dimmable%20brightness%20control%20independent%20of%20the%20supply%20voltage." display="https://www.pololu.com/product/4147/specs - :~:text=This%20array%20of%20IR%20LED%2Fphototransistor%20pairs%20is%20great,dimmable%20brightness%20control%20independent%20of%20the%20supply%20voltage."/>
-    <hyperlink ref="F6" r:id="rId5" display="https://www.pololu.com/product/1127"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://www.pololu.com/product/989"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://www.amazon.com/dp/B0C2Z1WNRV?ref=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;ref_=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;social_share=cm_sw_r_apin_dp_GRAB0R80YQJ3M09K9SNG_2&amp;starsLeft=1&amp;th=1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.amazon.com/Spektrum-7-4V-300mAh-LiPo-Battery/dp/B0BMFCN7LD/ref=sr_1_55?dib=eyJ2IjoiMSJ9.wzwfGOav2nVI91ccZl7OYcXuXj5Smi1pyHvz8MnEKTZ9i3wTqEBs8eILT9nwq6ENXuUFfiHC3NR4GzKrWZKNDn2YFT1GOJngdxAhUQVP36ZmWMpASlHSShcEF6om4UYc1A77I5Od4scneMemwc5Q7piO5o904nBnSYPnXp5sllmK90l0Z8qhOSYBcrC36MMKfBvg6xPjo1SzN9_ayTyPKAF-JF8dw3SUcm5AlP098XJCQ6lXvSg-kTyhctbc_YtUyZY4NIhVBm0UHuzP0qV-9KIycp-2UfiQ2qPuzQBWwjYV7ewJW2cHAmD6OjKNtzKrRkvC3EkMomIcEg-z-RU6eF-CKgT1zauTDpi5jNGeb0pEI9UUOUbPUmCmcVStcna8lhLiO7oIKxOVe81o1gWduYlHCpAaxtXdjNHLbujBXSE0IcuG8fXP-dL8K9zxNabL.2IexPEltABSEhd3UQSkn-n87hF9K3wfqKcLG_K9WDeA&amp;dib_tag=se&amp;keywords=2s+battery&amp;qid=1740303914&amp;sr=8-55" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://www.amazon.com/dp/B09KM213N7/ref=twister_B09KM3HWH6?_encoding=UTF8&amp;th=1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" location=":~:text=This%20array%20of%20IR%20LED%2Fphototransistor%20pairs%20is%20great,dimmable%20brightness%20control%20independent%20of%20the%20supply%20voltage." display="https://www.pololu.com/product/4147/specs - :~:text=This%20array%20of%20IR%20LED%2Fphototransistor%20pairs%20is%20great,dimmable%20brightness%20control%20independent%20of%20the%20supply%20voltage." xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://www.pololu.com/product/1127" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" display="https://www.pololu.com/product/989" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" display="https://www.pololu.com/product/3061" xr:uid="{786A8743-C1C8-4FC4-9F17-96B3C408DEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>